--- a/网站构架.xlsx
+++ b/网站构架.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LHT\Desktop\Twolobster 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\工作室——设计文件（研究学习的重要资料）\01个人文件\Twolobster 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C33314-E49E-464A-A2B5-5ECAA33F5D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFC86A-C0AF-4CCA-8DAD-CF817FB9F80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="2340" windowWidth="19155" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>首页检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,13 +317,24 @@
   <si>
     <t>施工服务设计风险管理工具v2.0.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理与支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差住宿标准查询系统v1.0.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差住宿标准查询系统</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +390,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +429,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8B6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -424,10 +448,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -437,12 +460,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE8B6E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -717,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F53"/>
+  <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,7 +770,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -753,341 +783,359 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2.1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>2.4</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="4"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>2.5</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>2.6</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>3</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="12">
+        <v>4</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/网站构架.xlsx
+++ b/网站构架.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\工作室——设计文件（研究学习的重要资料）\01个人文件\Twolobster 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFC86A-C0AF-4CCA-8DAD-CF817FB9F80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF109A5-EDC2-4936-A0F4-D3D24D8BF107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>首页检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>出差住宿标准查询系统</t>
+  </si>
+  <si>
+    <t>乔木荷载计算工具</t>
+  </si>
+  <si>
+    <t>乔木荷载计算工具.html</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F56"/>
+  <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,16 +1131,31 @@
         <v>74</v>
       </c>
       <c r="C55" s="12">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D56" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="11" t="s">
         <v>75</v>
       </c>
     </row>
